--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTSCong.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTSCong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F04703-8F88-4A11-A08B-23EEEFFA1C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2CC89-BBE8-4A4E-988B-45C527CD84F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="4695" windowWidth="21420" windowHeight="10725" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tên tài sản</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Thành tiền</t>
-  </si>
-  <si>
-    <t>ABC</t>
   </si>
   <si>
     <t>Cty XYZ</t>
@@ -91,9 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,7 +413,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,11 +445,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>240104541104</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>1000</v>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTSCong.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTSCong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2CC89-BBE8-4A4E-988B-45C527CD84F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E471FDA-4E89-4FBD-8B71-3CA24EB1BBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tên tài sản</t>
   </si>
@@ -51,14 +51,29 @@
     <t>Cty XYZ</t>
   </si>
   <si>
-    <t>m2</t>
+    <t>Mã tài sản</t>
+  </si>
+  <si>
+    <t>Nhà</t>
+  </si>
+  <si>
+    <t>Kiot ngoài sở tìa chính</t>
+  </si>
+  <si>
+    <t>GIÁ THUÊ TÀI SẢN CÔNG</t>
+  </si>
+  <si>
+    <t>Thuê từ ngày</t>
+  </si>
+  <si>
+    <t>đồng/tháng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +81,19 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,17 +112,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,64 +463,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>240104541104</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="F3" s="6">
+        <v>44927</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3">
         <v>1000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I3" s="3">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTSCong.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTSCong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E471FDA-4E89-4FBD-8B71-3CA24EB1BBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7A064-A090-4457-A570-2E10DE415505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Tên tài sản</t>
   </si>
@@ -143,11 +143,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -478,17 +478,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -535,7 +535,7 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>44927</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -545,6 +545,122 @@
         <v>1000</v>
       </c>
       <c r="I3" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44928</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44929</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44930</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44930</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTSCong.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueTSCong.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7A064-A090-4457-A570-2E10DE415505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EC94FC-30DB-450B-B9A9-F91C8134F796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,9 +57,6 @@
     <t>Nhà</t>
   </si>
   <si>
-    <t>Kiot ngoài sở tìa chính</t>
-  </si>
-  <si>
     <t>GIÁ THUÊ TÀI SẢN CÔNG</t>
   </si>
   <si>
@@ -67,17 +64,20 @@
   </si>
   <si>
     <t>đồng/tháng</t>
+  </si>
+  <si>
+    <t>Kiot ngoài sở tài chính</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -91,6 +91,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -131,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -144,6 +151,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -466,56 +480,57 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="17.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="17.75" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.75" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -524,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -539,12 +554,12 @@
         <v>44927</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="3">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -553,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -568,12 +583,12 @@
         <v>44928</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="3">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -582,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -597,12 +612,12 @@
         <v>44929</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="3">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -611,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -626,12 +641,12 @@
         <v>44930</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="3">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -640,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -655,12 +670,12 @@
         <v>44930</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="3">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -668,6 +683,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="H3:I1048576" xr:uid="{ED10D783-F336-4A43-A382-0FDE15BA486E}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>